--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.930114180179842</v>
+        <v>1.91935</v>
       </c>
       <c r="H2">
-        <v>0.930114180179842</v>
+        <v>5.75805</v>
       </c>
       <c r="I2">
-        <v>0.003870070881404167</v>
+        <v>0.007326713291392801</v>
       </c>
       <c r="J2">
-        <v>0.003870070881404167</v>
+        <v>0.007457130387750964</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N2">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O2">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P2">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q2">
-        <v>25.34538289296164</v>
+        <v>53.12920809811666</v>
       </c>
       <c r="R2">
-        <v>25.34538289296164</v>
+        <v>478.16287288305</v>
       </c>
       <c r="S2">
-        <v>0.0006001597494900611</v>
+        <v>0.001069420416610441</v>
       </c>
       <c r="T2">
-        <v>0.0006001597494900611</v>
+        <v>0.001099954281416664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.930114180179842</v>
+        <v>1.91935</v>
       </c>
       <c r="H3">
-        <v>0.930114180179842</v>
+        <v>5.75805</v>
       </c>
       <c r="I3">
-        <v>0.003870070881404167</v>
+        <v>0.007326713291392801</v>
       </c>
       <c r="J3">
-        <v>0.003870070881404167</v>
+        <v>0.007457130387750964</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N3">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P3">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q3">
-        <v>23.6271929714455</v>
+        <v>55.41928119039999</v>
       </c>
       <c r="R3">
-        <v>23.6271929714455</v>
+        <v>498.7735307135999</v>
       </c>
       <c r="S3">
-        <v>0.000559474294579856</v>
+        <v>0.001115516547309307</v>
       </c>
       <c r="T3">
-        <v>0.000559474294579856</v>
+        <v>0.001147366539057739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.930114180179842</v>
+        <v>1.91935</v>
       </c>
       <c r="H4">
-        <v>0.930114180179842</v>
+        <v>5.75805</v>
       </c>
       <c r="I4">
-        <v>0.003870070881404167</v>
+        <v>0.007326713291392801</v>
       </c>
       <c r="J4">
-        <v>0.003870070881404167</v>
+        <v>0.007457130387750964</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N4">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O4">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P4">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q4">
-        <v>54.32341369154548</v>
+        <v>128.7557720445833</v>
       </c>
       <c r="R4">
-        <v>54.32341369154548</v>
+        <v>1158.80194840125</v>
       </c>
       <c r="S4">
-        <v>0.001286337890031111</v>
+        <v>0.002591682735542191</v>
       </c>
       <c r="T4">
-        <v>0.001286337890031111</v>
+        <v>0.002665679911057585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.930114180179842</v>
+        <v>1.91935</v>
       </c>
       <c r="H5">
-        <v>0.930114180179842</v>
+        <v>5.75805</v>
       </c>
       <c r="I5">
-        <v>0.003870070881404167</v>
+        <v>0.007326713291392801</v>
       </c>
       <c r="J5">
-        <v>0.003870070881404167</v>
+        <v>0.007457130387750964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N5">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O5">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P5">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q5">
-        <v>54.99714935626022</v>
+        <v>115.2749991534667</v>
       </c>
       <c r="R5">
-        <v>54.99714935626022</v>
+        <v>1037.4749923812</v>
       </c>
       <c r="S5">
-        <v>0.001302291447705318</v>
+        <v>0.002320332676365236</v>
       </c>
       <c r="T5">
-        <v>0.001302291447705318</v>
+        <v>0.00238658232257094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.930114180179842</v>
+        <v>1.91935</v>
       </c>
       <c r="H6">
-        <v>0.930114180179842</v>
+        <v>5.75805</v>
       </c>
       <c r="I6">
-        <v>0.003870070881404167</v>
+        <v>0.007326713291392801</v>
       </c>
       <c r="J6">
-        <v>0.003870070881404167</v>
+        <v>0.007457130387750964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N6">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O6">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P6">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q6">
-        <v>5.144059925985072</v>
+        <v>11.4146086107</v>
       </c>
       <c r="R6">
-        <v>5.144059925985072</v>
+        <v>68.4876516642</v>
       </c>
       <c r="S6">
-        <v>0.0001218074995978217</v>
+        <v>0.0002297609155656254</v>
       </c>
       <c r="T6">
-        <v>0.0001218074995978217</v>
+        <v>0.0001575473336480373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>226.086790040715</v>
+        <v>246.1529693333333</v>
       </c>
       <c r="H7">
-        <v>226.086790040715</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I7">
-        <v>0.9407145073710507</v>
+        <v>0.9396369771695303</v>
       </c>
       <c r="J7">
-        <v>0.9407145073710507</v>
+        <v>0.956362720530769</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N7">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O7">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P7">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q7">
-        <v>6160.809482030018</v>
+        <v>6813.719400672102</v>
       </c>
       <c r="R7">
-        <v>6160.809482030018</v>
+        <v>61323.47460604891</v>
       </c>
       <c r="S7">
-        <v>0.1458833701982821</v>
+        <v>0.1371511246069506</v>
       </c>
       <c r="T7">
-        <v>0.1458833701982821</v>
+        <v>0.1410670344135384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>226.086790040715</v>
+        <v>246.1529693333333</v>
       </c>
       <c r="H8">
-        <v>226.086790040715</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I8">
-        <v>0.9407145073710507</v>
+        <v>0.9396369771695303</v>
       </c>
       <c r="J8">
-        <v>0.9407145073710507</v>
+        <v>0.956362720530769</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N8">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P8">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q8">
-        <v>5743.161786388197</v>
+        <v>7107.416898083156</v>
       </c>
       <c r="R8">
-        <v>5743.161786388197</v>
+        <v>63966.75208274842</v>
       </c>
       <c r="S8">
-        <v>0.1359937844914864</v>
+        <v>0.1430628652724379</v>
       </c>
       <c r="T8">
-        <v>0.1359937844914864</v>
+        <v>0.1471475658440474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>226.086790040715</v>
+        <v>246.1529693333333</v>
       </c>
       <c r="H9">
-        <v>226.086790040715</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I9">
-        <v>0.9407145073710507</v>
+        <v>0.9396369771695303</v>
       </c>
       <c r="J9">
-        <v>0.9407145073710507</v>
+        <v>0.956362720530769</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N9">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O9">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P9">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q9">
-        <v>13204.62206392832</v>
+        <v>16512.68169306275</v>
       </c>
       <c r="R9">
-        <v>13204.62206392832</v>
+        <v>148614.1352375647</v>
       </c>
       <c r="S9">
-        <v>0.3126755947411187</v>
+        <v>0.3323783577375916</v>
       </c>
       <c r="T9">
-        <v>0.3126755947411187</v>
+        <v>0.3418683540777036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>226.086790040715</v>
+        <v>246.1529693333333</v>
       </c>
       <c r="H10">
-        <v>226.086790040715</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I10">
-        <v>0.9407145073710507</v>
+        <v>0.9396369771695303</v>
       </c>
       <c r="J10">
-        <v>0.9407145073710507</v>
+        <v>0.956362720530769</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N10">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O10">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P10">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q10">
-        <v>13368.38984321521</v>
+        <v>14783.79833356256</v>
       </c>
       <c r="R10">
-        <v>13368.38984321521</v>
+        <v>133054.1850020631</v>
       </c>
       <c r="S10">
-        <v>0.3165534935208076</v>
+        <v>0.2975782312389419</v>
       </c>
       <c r="T10">
-        <v>0.3165534935208076</v>
+        <v>0.3060746217517805</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>226.086790040715</v>
+        <v>246.1529693333333</v>
       </c>
       <c r="H11">
-        <v>226.086790040715</v>
+        <v>738.4589080000001</v>
       </c>
       <c r="I11">
-        <v>0.9407145073710507</v>
+        <v>0.9396369771695303</v>
       </c>
       <c r="J11">
-        <v>0.9407145073710507</v>
+        <v>0.956362720530769</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N11">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O11">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P11">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q11">
-        <v>1250.388415987992</v>
+        <v>1463.901739287592</v>
       </c>
       <c r="R11">
-        <v>1250.388415987992</v>
+        <v>8783.410435725553</v>
       </c>
       <c r="S11">
-        <v>0.0296082644193559</v>
+        <v>0.02946639831360825</v>
       </c>
       <c r="T11">
-        <v>0.0296082644193559</v>
+        <v>0.02020514444369905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>13.3182753359125</v>
+        <v>0.09553966666666668</v>
       </c>
       <c r="H12">
-        <v>13.3182753359125</v>
+        <v>0.286619</v>
       </c>
       <c r="I12">
-        <v>0.05541542174754528</v>
+        <v>0.0003647025011706591</v>
       </c>
       <c r="J12">
-        <v>0.05541542174754528</v>
+        <v>0.0003711942853234678</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N12">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O12">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P12">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q12">
-        <v>362.9197307768401</v>
+        <v>2.644617621568778</v>
       </c>
       <c r="R12">
-        <v>362.9197307768401</v>
+        <v>23.801558594119</v>
       </c>
       <c r="S12">
-        <v>0.008593668346928549</v>
+        <v>5.323264132622471E-05</v>
       </c>
       <c r="T12">
-        <v>0.008593668346928549</v>
+        <v>5.47525284055128E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>13.3182753359125</v>
+        <v>0.09553966666666668</v>
       </c>
       <c r="H13">
-        <v>13.3182753359125</v>
+        <v>0.286619</v>
       </c>
       <c r="I13">
-        <v>0.05541542174754528</v>
+        <v>0.0003647025011706591</v>
       </c>
       <c r="J13">
-        <v>0.05541542174754528</v>
+        <v>0.0003711942853234678</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N13">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O13">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P13">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q13">
-        <v>338.3170239890377</v>
+        <v>2.758610806698667</v>
       </c>
       <c r="R13">
-        <v>338.3170239890377</v>
+        <v>24.827497260288</v>
       </c>
       <c r="S13">
-        <v>0.008011094613286305</v>
+        <v>5.552717278822625E-05</v>
       </c>
       <c r="T13">
-        <v>0.008011094613286305</v>
+        <v>5.711257284292252E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>13.3182753359125</v>
+        <v>0.09553966666666668</v>
       </c>
       <c r="H14">
-        <v>13.3182753359125</v>
+        <v>0.286619</v>
       </c>
       <c r="I14">
-        <v>0.05541542174754528</v>
+        <v>0.0003647025011706591</v>
       </c>
       <c r="J14">
-        <v>0.05541542174754528</v>
+        <v>0.0003711942853234678</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N14">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O14">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P14">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q14">
-        <v>777.8552312693379</v>
+        <v>6.40908825516389</v>
       </c>
       <c r="R14">
-        <v>777.8552312693379</v>
+        <v>57.681794296475</v>
       </c>
       <c r="S14">
-        <v>0.01841903129693018</v>
+        <v>0.0001290064368976246</v>
       </c>
       <c r="T14">
-        <v>0.01841903129693018</v>
+        <v>0.0001326898013090219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>13.3182753359125</v>
+        <v>0.09553966666666668</v>
       </c>
       <c r="H15">
-        <v>13.3182753359125</v>
+        <v>0.286619</v>
       </c>
       <c r="I15">
-        <v>0.05541542174754528</v>
+        <v>0.0003647025011706591</v>
       </c>
       <c r="J15">
-        <v>0.05541542174754528</v>
+        <v>0.0003711942853234678</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N15">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O15">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P15">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q15">
-        <v>787.5024308040873</v>
+        <v>5.738054546655111</v>
       </c>
       <c r="R15">
-        <v>787.5024308040873</v>
+        <v>51.642490919896</v>
       </c>
       <c r="S15">
-        <v>0.0186474697813874</v>
+        <v>0.0001154994193115946</v>
       </c>
       <c r="T15">
-        <v>0.0186474697813874</v>
+        <v>0.0001187971342230373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.09553966666666668</v>
+      </c>
+      <c r="H16">
+        <v>0.286619</v>
+      </c>
+      <c r="I16">
+        <v>0.0003647025011706591</v>
+      </c>
+      <c r="J16">
+        <v>0.0003711942853234678</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.947122</v>
+      </c>
+      <c r="N16">
+        <v>11.894244</v>
+      </c>
+      <c r="O16">
+        <v>0.03135934305434628</v>
+      </c>
+      <c r="P16">
+        <v>0.02112707240667584</v>
+      </c>
+      <c r="Q16">
+        <v>0.568186053506</v>
+      </c>
+      <c r="R16">
+        <v>3.409116321036</v>
+      </c>
+      <c r="S16">
+        <v>1.143683084698882E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.842248542973197E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05366933333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.161008</v>
+      </c>
+      <c r="I17">
+        <v>0.0002048713459627082</v>
+      </c>
+      <c r="J17">
+        <v>0.0002085181006540421</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.68083366666667</v>
+      </c>
+      <c r="N17">
+        <v>83.042501</v>
+      </c>
+      <c r="O17">
+        <v>0.1459618213622149</v>
+      </c>
+      <c r="P17">
+        <v>0.1475036943464798</v>
+      </c>
+      <c r="Q17">
+        <v>1.485611889000889</v>
+      </c>
+      <c r="R17">
+        <v>13.370507001008</v>
+      </c>
+      <c r="S17">
+        <v>2.990339480164534E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.075719018458233E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05366933333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.161008</v>
+      </c>
+      <c r="I18">
+        <v>0.0002048713459627082</v>
+      </c>
+      <c r="J18">
+        <v>0.0002085181006540421</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>28.873984</v>
+      </c>
+      <c r="N18">
+        <v>86.62195199999999</v>
+      </c>
+      <c r="O18">
+        <v>0.1522533369252733</v>
+      </c>
+      <c r="P18">
+        <v>0.1538616705619625</v>
+      </c>
+      <c r="Q18">
+        <v>1.549647471957333</v>
+      </c>
+      <c r="R18">
+        <v>13.946827247616</v>
+      </c>
+      <c r="S18">
+        <v>3.119234606319446E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.208294330903837E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05366933333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.161008</v>
+      </c>
+      <c r="I19">
+        <v>0.0002048713459627082</v>
+      </c>
+      <c r="J19">
+        <v>0.0002085181006540421</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.08300833333334</v>
+      </c>
+      <c r="N19">
+        <v>201.249025</v>
+      </c>
+      <c r="O19">
+        <v>0.3537306064080358</v>
+      </c>
+      <c r="P19">
+        <v>0.3574672524750558</v>
+      </c>
+      <c r="Q19">
+        <v>3.600300335244445</v>
+      </c>
+      <c r="R19">
+        <v>32.4027030172</v>
+      </c>
+      <c r="S19">
+        <v>7.246926544301928E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.453839253211758E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05366933333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.161008</v>
+      </c>
+      <c r="I20">
+        <v>0.0002048713459627082</v>
+      </c>
+      <c r="J20">
+        <v>0.0002085181006540421</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>60.05939466666666</v>
+      </c>
+      <c r="N20">
+        <v>180.178184</v>
+      </c>
+      <c r="O20">
+        <v>0.3166948922501296</v>
+      </c>
+      <c r="P20">
+        <v>0.3200403102098261</v>
+      </c>
+      <c r="Q20">
+        <v>3.223347672163556</v>
+      </c>
+      <c r="R20">
+        <v>29.010129049472</v>
+      </c>
+      <c r="S20">
+        <v>6.488170883479891E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.673419761768338E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05366933333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.161008</v>
+      </c>
+      <c r="I21">
+        <v>0.0002048713459627082</v>
+      </c>
+      <c r="J21">
+        <v>0.0002085181006540421</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.947122</v>
+      </c>
+      <c r="N21">
+        <v>11.894244</v>
+      </c>
+      <c r="O21">
+        <v>0.03135934305434628</v>
+      </c>
+      <c r="P21">
+        <v>0.02112707240667584</v>
+      </c>
+      <c r="Q21">
+        <v>0.3191780729920001</v>
+      </c>
+      <c r="R21">
+        <v>1.915068437952</v>
+      </c>
+      <c r="S21">
+        <v>6.424630820050229E-06</v>
+      </c>
+      <c r="T21">
+        <v>4.40537701062047E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.7445025</v>
+      </c>
+      <c r="H22">
+        <v>27.489005</v>
+      </c>
+      <c r="I22">
+        <v>0.05246673569194341</v>
+      </c>
+      <c r="J22">
+        <v>0.0356004366955025</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>27.68083366666667</v>
+      </c>
+      <c r="N22">
+        <v>83.042501</v>
+      </c>
+      <c r="O22">
+        <v>0.1459618213622149</v>
+      </c>
+      <c r="P22">
+        <v>0.1475036943464798</v>
+      </c>
+      <c r="Q22">
+        <v>380.4592875335842</v>
+      </c>
+      <c r="R22">
+        <v>2282.755725201505</v>
+      </c>
+      <c r="S22">
+        <v>0.007658140302525988</v>
+      </c>
+      <c r="T22">
+        <v>0.005251195932934604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.7445025</v>
+      </c>
+      <c r="H23">
+        <v>27.489005</v>
+      </c>
+      <c r="I23">
+        <v>0.05246673569194341</v>
+      </c>
+      <c r="J23">
+        <v>0.0356004366955025</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>28.873984</v>
+      </c>
+      <c r="N23">
+        <v>86.62195199999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1522533369252733</v>
+      </c>
+      <c r="P23">
+        <v>0.1538616705619625</v>
+      </c>
+      <c r="Q23">
+        <v>396.8585452729599</v>
+      </c>
+      <c r="R23">
+        <v>2381.15127163776</v>
+      </c>
+      <c r="S23">
+        <v>0.007988235586674724</v>
+      </c>
+      <c r="T23">
+        <v>0.005477542662705407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.3182753359125</v>
-      </c>
-      <c r="H16">
-        <v>13.3182753359125</v>
-      </c>
-      <c r="I16">
-        <v>0.05541542174754528</v>
-      </c>
-      <c r="J16">
-        <v>0.05541542174754528</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.53056822011943</v>
-      </c>
-      <c r="N16">
-        <v>5.53056822011943</v>
-      </c>
-      <c r="O16">
-        <v>0.03147422962796657</v>
-      </c>
-      <c r="P16">
-        <v>0.03147422962796657</v>
-      </c>
-      <c r="Q16">
-        <v>73.6576303195981</v>
-      </c>
-      <c r="R16">
-        <v>73.6576303195981</v>
-      </c>
-      <c r="S16">
-        <v>0.001744157709012853</v>
-      </c>
-      <c r="T16">
-        <v>0.001744157709012853</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.7445025</v>
+      </c>
+      <c r="H24">
+        <v>27.489005</v>
+      </c>
+      <c r="I24">
+        <v>0.05246673569194341</v>
+      </c>
+      <c r="J24">
+        <v>0.0356004366955025</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>67.08300833333334</v>
+      </c>
+      <c r="N24">
+        <v>201.249025</v>
+      </c>
+      <c r="O24">
+        <v>0.3537306064080358</v>
+      </c>
+      <c r="P24">
+        <v>0.3574672524750558</v>
+      </c>
+      <c r="Q24">
+        <v>922.0225757450208</v>
+      </c>
+      <c r="R24">
+        <v>5532.135454470125</v>
+      </c>
+      <c r="S24">
+        <v>0.01855909023256128</v>
+      </c>
+      <c r="T24">
+        <v>0.01272599029245343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.7445025</v>
+      </c>
+      <c r="H25">
+        <v>27.489005</v>
+      </c>
+      <c r="I25">
+        <v>0.05246673569194341</v>
+      </c>
+      <c r="J25">
+        <v>0.0356004366955025</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>60.05939466666666</v>
+      </c>
+      <c r="N25">
+        <v>180.178184</v>
+      </c>
+      <c r="O25">
+        <v>0.3166948922501296</v>
+      </c>
+      <c r="P25">
+        <v>0.3200403102098261</v>
+      </c>
+      <c r="Q25">
+        <v>825.4865001444866</v>
+      </c>
+      <c r="R25">
+        <v>4952.919000866919</v>
+      </c>
+      <c r="S25">
+        <v>0.01661594720667605</v>
+      </c>
+      <c r="T25">
+        <v>0.0113935748036339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.7445025</v>
+      </c>
+      <c r="H26">
+        <v>27.489005</v>
+      </c>
+      <c r="I26">
+        <v>0.05246673569194341</v>
+      </c>
+      <c r="J26">
+        <v>0.0356004366955025</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.947122</v>
+      </c>
+      <c r="N26">
+        <v>11.894244</v>
+      </c>
+      <c r="O26">
+        <v>0.03135934305434628</v>
+      </c>
+      <c r="P26">
+        <v>0.02112707240667584</v>
+      </c>
+      <c r="Q26">
+        <v>81.74023319680499</v>
+      </c>
+      <c r="R26">
+        <v>326.96093278722</v>
+      </c>
+      <c r="S26">
+        <v>0.001645322363505368</v>
+      </c>
+      <c r="T26">
+        <v>0.0007521330037751611</v>
       </c>
     </row>
   </sheetData>
